--- a/Zeszyt1.xlsx
+++ b/Zeszyt1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\Documents\WORK\Asahi\makroSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19AAB79-C860-4403-BF46-F0FCB418B39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA1D16F-DADC-44F9-8C1B-EC82D7101032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{4DCD1327-F7F2-4DB9-A87C-E16CB70E4CB9}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
